--- a/CG - Homework 2 - 3D Cube Csharp - Evaluation form.xlsx
+++ b/CG - Homework 2 - 3D Cube Csharp - Evaluation form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F237E3-CB43-4B37-9DC0-DD9C872C6E63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F36856-0568-478A-B9D8-9F02292A6167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="36420" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation form" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Knock-out criteria</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">Opspitsing van logica in functionele blocken en C# code conventie aan houden. Ook is de pipeline gedefineerd in een losse class. </t>
+  </si>
+  <si>
+    <t>- Matrix tests
+- Vector tests
+- Renderer tests
+- Animation tests</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -586,6 +592,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -938,8 +947,8 @@
   </sheetPr>
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1189,7 +1198,9 @@
       <c r="G29" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="30" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
@@ -1232,6 +1243,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="250432fd046aabec56a216ed70dde643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b5b841223ae0e17bccbe097560b89c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1471,33 +1508,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F6E415A-D81B-4665-9E48-B27FE2D284F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1515,30 +1552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CG - Homework 2 - 3D Cube Csharp - Evaluation form.xlsx
+++ b/CG - Homework 2 - 3D Cube Csharp - Evaluation form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F36856-0568-478A-B9D8-9F02292A6167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33F4666-FF7A-481F-9F48-CF80E82BD45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Knock-out criteria</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Keyboard events for changing parameters of ViewMatrix / ProjectionMatrix (5 points)</t>
-  </si>
-  <si>
-    <t>More modularity. Possibilities: a superclass for axes and cube; define all three axes in one class; a new pipeline for both model, view and projection operations; …</t>
   </si>
   <si>
     <t>Unit tests (10 points)</t>
@@ -169,6 +166,20 @@
 - Vector tests
 - Renderer tests
 - Animation tests</t>
+  </si>
+  <si>
+    <t>- Screen information for rotation, translation, scale
+- Screen information for D/R/Theta/PHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Animation Statemachiene
+- Camera
+- Renderer
+- Scene
+- MainScene
+- Scene Object 
+- Mesh Scene Object
+- VertexLabelScene Object</t>
   </si>
 </sst>
 </file>
@@ -576,6 +587,9 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -592,9 +606,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -947,8 +958,8 @@
   </sheetPr>
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,10 +986,10 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="27">
         <v>1130831</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -986,7 +997,7 @@
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,37 +1013,37 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="29">
         <v>1</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1080,7 +1091,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="8"/>
       <c r="G17" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1090,7 +1101,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="9"/>
       <c r="G18" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1100,7 +1111,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="9"/>
       <c r="G19" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1110,7 +1121,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="9"/>
       <c r="G20" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1120,7 +1131,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="10"/>
       <c r="G21" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1161,45 +1172,47 @@
       <c r="D26" s="4"/>
       <c r="E26" s="8"/>
       <c r="G26" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="9"/>
       <c r="G27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="9"/>
       <c r="G28" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="9"/>
       <c r="G29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1209,10 +1222,10 @@
       <c r="D30" s="6"/>
       <c r="E30" s="10"/>
       <c r="G30" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1243,32 +1256,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="250432fd046aabec56a216ed70dde643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b5b841223ae0e17bccbe097560b89c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1508,33 +1495,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F6E415A-D81B-4665-9E48-B27FE2D284F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1552,4 +1539,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CG - Homework 2 - 3D Cube Csharp - Evaluation form.xlsx
+++ b/CG - Homework 2 - 3D Cube Csharp - Evaluation form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33F4666-FF7A-481F-9F48-CF80E82BD45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEA85E7-A586-48C6-8B71-4F2CA3B4FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Knock-out criteria</t>
   </si>
@@ -126,19 +126,10 @@
     <t>On screen info on parameters (5 points)</t>
   </si>
   <si>
-    <t>Extra objects, other transformations, changing colors, …</t>
-  </si>
-  <si>
     <t>X, Y, Z</t>
   </si>
   <si>
-    <t>tranlate, rotate, scale werken met keys en animatie.</t>
-  </si>
-  <si>
     <t>Ja</t>
-  </si>
-  <si>
-    <t>Ja, drie fases, en drie fases inverse.</t>
   </si>
   <si>
     <t>Alle belangrijke waardes worden weergeven op het scherm.</t>
@@ -168,18 +159,39 @@
 - Animation tests</t>
   </si>
   <si>
+    <t>-Q/W voor distance camera.
+-</t>
+  </si>
+  <si>
     <t>- Screen information for rotation, translation, scale
-- Screen information for D/R/Theta/PHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Animation Statemachiene
+- Screen information for D/R/Theta/PHI
+- Keybindings instructions</t>
+  </si>
+  <si>
+    <t>- Ape in center of cube
+-  Colored Cube 
+- Gameloop, render pipeline
+- other transformations, changing colors, …</t>
+  </si>
+  <si>
+    <t>- Tranlate werkt met arrow keys en X, Y, Z 
+- Scale werkt met S/s
+- Rotatie werkt met X/x, Y/y, Z/z</t>
+  </si>
+  <si>
+    <t>-  3 fasen met twee states.
+- zes statemachiene states en een om theta en PHI terug te zetten naar default</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Animation Statemachiene, States
 - Camera
 - Renderer
 - Scene
 - MainScene
 - Scene Object 
 - Mesh Scene Object
-- VertexLabelScene Object</t>
+- VertexLabelScene Object
+- CoordinateSystem, Axis</t>
   </si>
 </sst>
 </file>
@@ -563,12 +575,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -606,6 +612,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -958,8 +970,8 @@
   </sheetPr>
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,26 +998,26 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>1130831</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
-        <v>39</v>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22">
+      <c r="D6" s="19"/>
+      <c r="E6" s="20">
         <v>1130791</v>
       </c>
     </row>
@@ -1013,37 +1025,37 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="26"/>
+      <c r="D7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="27">
         <v>1</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1090,8 +1102,8 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="8"/>
-      <c r="G17" s="19" t="s">
-        <v>34</v>
+      <c r="G17" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1100,28 +1112,28 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="9"/>
-      <c r="G18" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="9"/>
-      <c r="G19" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="9"/>
-      <c r="G20" s="19" t="s">
-        <v>35</v>
+      <c r="G20" s="30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1130,8 +1142,8 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="10"/>
-      <c r="G21" s="20" t="s">
-        <v>34</v>
+      <c r="G21" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1161,7 +1173,7 @@
       <c r="G25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1171,35 +1183,37 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="8"/>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="9"/>
-      <c r="G27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="G27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="9"/>
-      <c r="G28" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>45</v>
+      <c r="G28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1208,24 +1222,24 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="9"/>
-      <c r="G29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="10"/>
-      <c r="G30" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>31</v>
+      <c r="G30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1236,7 +1250,7 @@
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="21">
         <f>IF(D23&lt;55,D23,D23+SUM(D26:D30))/10</f>
         <v>1</v>
       </c>
@@ -1256,6 +1270,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="250432fd046aabec56a216ed70dde643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b5b841223ae0e17bccbe097560b89c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1495,33 +1535,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F6E415A-D81B-4665-9E48-B27FE2D284F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1539,30 +1579,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CG - Homework 2 - 3D Cube Csharp - Evaluation form.xlsx
+++ b/CG - Homework 2 - 3D Cube Csharp - Evaluation form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEA85E7-A586-48C6-8B71-4F2CA3B4FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27124B6-B52C-4890-90E1-FF4E481C1E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation form" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Knock-out criteria</t>
   </si>
@@ -126,9 +126,6 @@
     <t>On screen info on parameters (5 points)</t>
   </si>
   <si>
-    <t>X, Y, Z</t>
-  </si>
-  <si>
     <t>Ja</t>
   </si>
   <si>
@@ -147,40 +144,23 @@
     <t>Timon Post</t>
   </si>
   <si>
-    <t>Toetsen worden aan gegeven met labels. Projectie matrix werkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opspitsing van logica in functionele blocken en C# code conventie aan houden. Ook is de pipeline gedefineerd in een losse class. </t>
+    <t>- Screen information for rotation, translation, scale
+- Screen information for D/R/Theta/PHI
+- Keybindings instructions</t>
+  </si>
+  <si>
+    <t>-P/P voor phi paramter camera.
+- D/d voor distance parameter camera.
+- R/r voor R paramter camera.
+- T/t voor theata paramter camera.
+- Page UP/DOWN voor object distance</t>
   </si>
   <si>
     <t>- Matrix tests
 - Vector tests
 - Renderer tests
-- Animation tests</t>
-  </si>
-  <si>
-    <t>-Q/W voor distance camera.
--</t>
-  </si>
-  <si>
-    <t>- Screen information for rotation, translation, scale
-- Screen information for D/R/Theta/PHI
-- Keybindings instructions</t>
-  </si>
-  <si>
-    <t>- Ape in center of cube
--  Colored Cube 
-- Gameloop, render pipeline
-- other transformations, changing colors, …</t>
-  </si>
-  <si>
-    <t>- Tranlate werkt met arrow keys en X, Y, Z 
-- Scale werkt met S/s
-- Rotatie werkt met X/x, Y/y, Z/z</t>
-  </si>
-  <si>
-    <t>-  3 fasen met twee states.
-- zes statemachiene states en een om theta en PHI terug te zetten naar default</t>
+- Animation tests
+- Animation State Machine test</t>
   </si>
   <si>
     <t xml:space="preserve"> - Animation Statemachiene, States
@@ -191,7 +171,38 @@
 - Scene Object 
 - Mesh Scene Object
 - VertexLabelScene Object
-- CoordinateSystem, Axis</t>
+- CoordinateSystem, Axis
+- VertexBuffer/IndexBuffer
+- Comments
+- Good variable names
+- Not multiple types in one file.</t>
+  </si>
+  <si>
+    <t>- Translate werkt met UP/DOWN/LEFT/RIGHT arrow.
+- Move on Z werkt met PgUp/PgDown
+- Scale werkt met S/s
+- Rotatie werkt met X/x, Y/y, Z/z</t>
+  </si>
+  <si>
+    <t>- Animatie werkt met statemachine en verschillende states conform the requirments</t>
+  </si>
+  <si>
+    <t>- Toetsen worden aan gegeven met labels.
+- View matrix werkt
+- Projectie matrix werkt.</t>
+  </si>
+  <si>
+    <t>- Opspitsing van logica in functionele blocken
+- C# code conventie aan houden.</t>
+  </si>
+  <si>
+    <t>- OBJ import
+- Color vertexes (colored cube) 
+- Gameloop, render pipeline
+- Ape in center of cube
+- Deltatime
+- Good looking responsive UI.
+- Animation Finite State machine</t>
   </si>
 </sst>
 </file>
@@ -970,8 +981,8 @@
   </sheetPr>
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1020,7 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,7 +1037,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="24"/>
     </row>
@@ -1103,7 +1114,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="8"/>
       <c r="G17" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1116,14 +1127,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="9"/>
       <c r="G19" s="30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1133,7 +1144,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="9"/>
       <c r="G20" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1143,7 +1154,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="10"/>
       <c r="G21" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1177,17 +1188,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="8"/>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1197,49 +1208,49 @@
       <c r="D27" s="5"/>
       <c r="E27" s="9"/>
       <c r="G27" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="9"/>
-      <c r="G28" s="17" t="s">
-        <v>39</v>
+      <c r="G28" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="9"/>
       <c r="G29" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="10"/>
       <c r="G30" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
